--- a/doc/ue5_movieplayer.xlsx
+++ b/doc/ue5_movieplayer.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02001401-F663-4595-A6AC-E6DA28AED135}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81FE7393-1AD8-4AAA-8D2D-992299C61531}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="描述" sheetId="7" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="播放时机" sheetId="9" r:id="rId5"/>
     <sheet name="UE5切换场景" sheetId="2" r:id="rId6"/>
     <sheet name="备注" sheetId="10" r:id="rId7"/>
+    <sheet name="Loading进度条的播放时机" sheetId="11" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="193">
   <si>
     <t>FMoviePlayerProxy::BlockingTick();</t>
   </si>
@@ -700,6 +701,22 @@
   </si>
   <si>
     <t>GetMoviePlayer()-&gt;WaitForMovieToFinish(true);</t>
+  </si>
+  <si>
+    <t>自己完全假的一个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预估一个时间，然后自己做假进度条</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加载结束了，但是进度条没到，则强制快进</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进度条到了，记载没结束，就死等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2304,7 +2321,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D179D949-41BA-4124-8124-69A3C3938C1F}">
   <dimension ref="B4:Q11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
@@ -2358,4 +2375,211 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8FAB488-EDFC-4BB1-8C21-81CE000D57DA}">
+  <dimension ref="C5:M18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="5" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+    </row>
+    <row r="6" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C6" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+    </row>
+    <row r="7" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+    </row>
+    <row r="8" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C8" s="2"/>
+      <c r="D8" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/doc/ue5_movieplayer.xlsx
+++ b/doc/ue5_movieplayer.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ue\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81FE7393-1AD8-4AAA-8D2D-992299C61531}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C0A2209-DEB7-4524-A64A-F2CD903806E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="描述" sheetId="7" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="UE5切换场景" sheetId="2" r:id="rId6"/>
     <sheet name="备注" sheetId="10" r:id="rId7"/>
     <sheet name="Loading进度条的播放时机" sheetId="11" r:id="rId8"/>
+    <sheet name="用法" sheetId="12" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="196">
   <si>
     <t>FMoviePlayerProxy::BlockingTick();</t>
   </si>
@@ -716,6 +717,18 @@
   </si>
   <si>
     <t>进度条到了，记载没结束，就死等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在切换场景的时候，如果用2DUI，可以自由控制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一般需要在等待DS返回OK之后在切换进场景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个是否就需要等对应的RPC回调，然后手动调用ForceCompletion来结束，并且可以在回调里面做一些特殊的处理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2381,7 +2394,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8FAB488-EDFC-4BB1-8C21-81CE000D57DA}">
   <dimension ref="C5:M18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
@@ -2582,4 +2595,41 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62571E31-470D-4CA4-A0CC-401CF9FBCDB5}">
+  <dimension ref="B4:C6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B4" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>195</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>